--- a/SRC/FlowChart/一般交易/inEVENT_Responder_SALE_NEW.xlsx
+++ b/SRC/FlowChart/一般交易/inEVENT_Responder_SALE_NEW.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
   <si>
     <t>inEVENT_Responder</t>
   </si>
@@ -785,12 +785,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_NCCC_DCC_ONLINERATE_</t>
-  </si>
-  <si>
-    <t>inNCCC_DCC_Final_DCC_Option</t>
-  </si>
-  <si>
     <t>(暫時沒看Code)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -861,6 +855,465 @@
   </si>
   <si>
     <t>inNCCC_Func_BuildAndSendPacket_Flow</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Beep_After_Auth</t>
+  </si>
+  <si>
+    <t>客製化為_CUSTOMER_INDICATOR_123_IKEA_或是_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
+  </si>
+  <si>
+    <t>inNCCC_Func_Get_Transaction_No_From_PAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>利用TID運算出卡號的Transaction Number(交易編號)，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strcpy(pobTran-&gt;srBRec.szTxnNo, szTxNo);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+因為原本註解就寫得很完整了，詳細可直接閱讀這支程式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_BDAU_DeleteAccumBatch</t>
+  </si>
+  <si>
+    <r>
+      <t>組szRRN:szRRN[0] = "9"，szRRN[1:5]取端末機代號[3~7] +szRRN[6:7] 取szlnBatchNum取兩數 + szRRN[8:10]取lnOrgInvNum取三數，並向右填滿空格，讓szRRN 長度固定12(序號 Ref. No.)
+組szAwardSN(優惠序號):端末機代號[0:7]+取得系統日期轉為西元年月日時分秒 取年月
+如果不是信託交易，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strncpy(pobTran-&gt;srBRec.szRefNo, szRRN, sizeof(pobTran-&gt;srBRec.szRefNo))</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起來是針對客製化_CUSTOMER_INDICATOR_042_BDAU1_或是_CUSTOMER_INDICATOR_043_BDAU9_ 要刪除Batch資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inACCUM_UpdateFlow</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inFunc_ComposeFileName取得HostName+BatchNum+.amt檔名(uszFileName)，開檔案並讀出srAccumRec的資料。
+inACCUM_UpdateTotalAmount:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    srAccumRec-&gt;lnTotalSaleCount++;
+    srAccumRec-&gt;lnTotalSale_NoSignCount++;
+    srAccumRec-&gt;lnTotalCount++;
+    srAccumRec-&gt;llTotalSaleAmount += pobTran-&gt;srBRec.lnTxnAmount;
+    srAccumRec-&gt;llTotalSale_NoSignAmount += pobTran-&gt;srBRec.lnTxnAmount;
+    srAccumRec-&gt;llTotalAmount += pobTran-&gt;srBRec.lnTxnAmount;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+inACCUM_UpdateTotalAmountByCard:
+    卡別為_CARD_TYPE_CUP_ 情況:
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>srAccumRec-&gt;lnCupTotalSaleCount ++;
+        srAccumRec-&gt;lnCupTotalCount ++;
+        srAccumRec-&gt;llCupTotalSaleAmount += pobTran-&gt;srBRec.lnTxnAmount;
+        srAccumRec-&gt;llCupTotalAmount += pobTran-&gt;srBRec.lnTxnAmount;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+inACCUM_StoreRecord:
+    更新srAccumRec資料回檔案uszFileName</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_DuplicateSave</t>
+  </si>
+  <si>
+    <t>inFunc_DuplicateCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">不可連續刷卡檢核有開啟情況:
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>memcpy(gszDuplicatePAN, pobTran-&gt;srBRec.szPAN, sizeof(pobTran-&gt;srBRec.szPAN));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Note:在inFunc_DuplicateCheck()會使用到變數gszDuplicatePAN</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_UpdateInvNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會先抓每個主機的調閱編號，取最大值編號，同步更新每個主機的資料庫欄位上，
+判斷如果原始的調閱編號超過上限且要結帳，設定szMustSettleBit(是否結帳的flag)為"Y"，並同步更新資料庫的欄位值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inECR_Send_Transaction_Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pobTran-&gt;uszDelaySendBit == VS_FALSE情況:
+    inECR_Send_Transaction:
+        印帳單前要送給ECR
+Note:pobTran-&gt;uszDelaySendBit == VS_FALSE可參考inNCCC_Func_Send_ECR_After_Print_Receipt()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_ESC_FuncProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inCREDIT_Func_CheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inNCCC_Func_Check_NoSignature_Final:
+    針對客製化設定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.uszNoSignatureBit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，
+    並更新回資料庫(inBATCH_Update_NoSignature_By_Sqlite)
+針對CUP交易，螢幕顯示交易完成、授權碼，使用者輸入Enter/逾時離開程式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inSIGN_TouchSignature_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看起來是設定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pobTran-&gt;srBRec.inSignStatus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新回資料庫，又或是開啟signPad觸控簽名功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">開啟ESC功能情況:
+    pobTran-&gt;uszFileNameNoNeedHostBit = VS_TRUE;
+    pobTran-&gt;uszFileNameNoNeedNumBit = VS_TRUE;
+    inSqlite_Drop_Table_Flow:
+        Drop Table
+    inBATCH_Create_BatchTable_Flow:
+        Create Table
+    inBATCH_Insert_All_Flow:
+        Insert Into Table
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    pobTran-&gt;uszFileNameNoNeedHostBit = VS_FALSE;
+    pobTran-&gt;uszFileNameNoNeedNumBit = VS_FALSE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Note:每次對Table做操作，都會先開啟
+pobTran-&gt;uszFileNameNoNeedHostBit、pobTran-&gt;uszFileNameNoNeedNumBit的BitOn，
+主要用在取檔名，結束操作會關閉這兩個Bit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inFunc_PrintReceipt_ByBuffer_Flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inBATCH_FuncUpdateTxnRecord_By_Sqlite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inBATCH_Create_BatchTable_Flow:
+    inTableType 等於_TN_BATCH_TABLE_或是_TN_EMV_TABLE_執行不同SQLite Create Table Function，
+    再依據SQLITE_TAG_TABLE，裡面包含欄位名、型別、屬性1、屬性2，組合Sql語句，建立Table，
+    建立Batch Table和Emv Table。
+inBATCH_Insert_All_Flow(pobTran, _TN_BATCH_TABLE_):
+    這邊是Insert  srBRec資料到Table
+    inSqlite_Table_Link_BRec:
+        inSqlite_Table_Link:
+            先把srLink的Table mapping到srALL
+    inSqlite_Insert_Record:
+        inSqlite_Calculate_Insert_SQLLength:
+            先計算產生的Sql語句的長度，才能動態配置記憶體空間
+    inSqlite_Gernerate_InsertSQL:
+        組合最終的Sql，Insert into ...values(?,?...)，這邊注意到VALUES裡面是放入問號
+    inSqlite_Binding_Values:
+        上述提到的問號，會透過index方式把參數值綁定回去
+    sqlite3_step(srSQLStat):
+        真正執行Sql動作
+inSqlite_Get_Max_TableID_Flow:
+    取得最大的TableID，更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;inTableID = atoi(szTableID)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如果有【EMV】和【Contactless】交易:
+    inBATCH_Insert_All_Flow(pobTran, _TN_EMV_TABLE_):
+        這邊是Insert  srEMVRec資料到Table，可直接參考上述
+inFunc_Save_Last_Txn_Host:
+    inFile_Linux_Delete_In_Fs_Data
+        inFile_Unlink_File:
+            inRetVal = unlink( ./fs_data/LAST_TXN_HOST.txt );
+inFile_Linux_Create_In_Fs_Data:
+    inFile_Linux_Create:
+        open file，取得Fd
+inFunc_Data_Chmod:
+    新增檔案權限為744
+檔案指針指向開頭，寫入pobTran-&gt;srBRec.inHDTIndex資料到檔案
+inFunc_Load_Last_UniqueNo:
+    流程跟上述一樣，差別在刪除和建立的檔名不同，寫入的資料不同，這邊寫入的資料是pobTran-&gt;szUniqueNo
+Note:
+    unlink 會 從檔案系統中刪除檔名。
+    如果檔案之前有任何 開啟的檔案描述字（fd），即使呼叫了 unlink，程式仍然可以透過這些 fd 讀寫檔案。
+    只有當 所有 fd 都關閉 且檔名已被刪除後，檔案的內容才會被系統釋放，檔案才算真正被刪除。 
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Send_ECR_After_Print_Receipt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">inFunc_NCCC_PrintReceipt_ByBuffer_ESC:
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pobTran-&gt;srBRec.inPrintOption = _PRT_CUST_;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    inCREDIT_PRINT_Receipt_ByBuffer:
+        inPrintIndex = _REPORT_INDEX_NORMAL_;
+                呼叫inPRINT_Buffer_PutGraphic() 、inPRINT_Buffer_PutIn()等function，
+                把Logo、TID/MID、簽單內容、金額資料等存到Buffer，
+                最後呼叫inPRINT_Buffer_OutPut，將Buffer中的資料印出</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果是ECR交易:
+    pobTran-&gt;uszDelaySendBit == VS_TRUE:
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;uszDelaySendBit = VS_FALSE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        inECR_Send_Transaction_Result:
+            !pobTran-&gt;uszDelaySendBit:
+                inECR_Send_Transaction:
+                        組電文、發送電文</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_Func_Receive_EI_Flow</t>
+  </si>
+  <si>
+    <t>針對ECR發起的交易，且客製化會處理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_ESC_Func_Upload</t>
   </si>
   <si>
     <r>
@@ -1005,314 +1458,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inNCCC_Func_Beep_After_Auth</t>
-  </si>
-  <si>
-    <t>客製化為_CUSTOMER_INDICATOR_123_IKEA_或是_CUSTOMER_INDICATOR_124_EVER_RICH_ 加入提示音</t>
-  </si>
-  <si>
-    <t>inNCCC_Func_Get_Transaction_No_From_PAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>利用TID運算出卡號的Transaction Number(交易編號)，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> strcpy(pobTran-&gt;srBRec.szTxnNo, szTxNo);</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
+    <t>inNCCC_DCC_OnlineRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">如果是DCC交易:
+    inFunc_Find_Specific_HDTindex:
+        如果DCC主機存在，取得index
+    pobTran-&gt;srBRec.inHDTIndex = inHDTIndex;
+    inLoadHDTRec(pobTran-&gt;srBRec.inHDTIndex);
+    inLoadHDPTRec(pobTran-&gt;srBRec.inHDTIndex);  
+    inFunc_Get_HDPT_General_Data:
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.lnBatchNum = atol(szBatchNum);
+       pobTran-&gt;srBRec.lnSTANNum = atol(szSTANNum);   
+       pobTran-&gt;srBRec.lnOrgInvNum = atol(szInvoiceNum);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-因為原本註解就寫得很完整了，詳細可直接閱讀這支程式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_BDAU_DeleteAccumBatch</t>
-  </si>
-  <si>
-    <r>
-      <t>組szRRN:szRRN[0] = "9"，szRRN[1:5]取端末機代號[3~7] +szRRN[6:7] 取szlnBatchNum取兩數 + szRRN[8:10]取lnOrgInvNum取三數，並向右填滿空格，讓szRRN 長度固定12(序號 Ref. No.)
-組szAwardSN(優惠序號):端末機代號[0:7]+取得系統日期轉為西元年月日時分秒 取年月
-如果不是信託交易，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strncpy(pobTran-&gt;srBRec.szRefNo, szRRN, sizeof(pobTran-&gt;srBRec.szRefNo))</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起來是針對客製化_CUSTOMER_INDICATOR_042_BDAU1_或是_CUSTOMER_INDICATOR_043_BDAU9_ 要刪除Batch資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inACCUM_UpdateFlow</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">inFunc_ComposeFileName取得HostName+BatchNum+.amt檔名(uszFileName)，開檔案並讀出srAccumRec的資料。
-inACCUM_UpdateTotalAmount:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    srAccumRec-&gt;lnTotalSaleCount++;
-    srAccumRec-&gt;lnTotalSale_NoSignCount++;
-    srAccumRec-&gt;lnTotalCount++;
-    srAccumRec-&gt;llTotalSaleAmount += pobTran-&gt;srBRec.lnTxnAmount;
-    srAccumRec-&gt;llTotalSale_NoSignAmount += pobTran-&gt;srBRec.lnTxnAmount;
-    srAccumRec-&gt;llTotalAmount += pobTran-&gt;srBRec.lnTxnAmount;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-inACCUM_UpdateTotalAmountByCard:
-    卡別為_CARD_TYPE_CUP_ 情況:
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>srAccumRec-&gt;lnCupTotalSaleCount ++;
-        srAccumRec-&gt;lnCupTotalCount ++;
-        srAccumRec-&gt;llCupTotalSaleAmount += pobTran-&gt;srBRec.lnTxnAmount;
-        srAccumRec-&gt;llCupTotalAmount += pobTran-&gt;srBRec.lnTxnAmount;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-inACCUM_StoreRecord:
-    更新srAccumRec資料回檔案uszFileName</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inBATCH_FuncUpdateTxnRecord_By_Sqlite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_DuplicateSave</t>
-  </si>
-  <si>
-    <t>inFunc_DuplicateCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">不可連續刷卡檢核有開啟情況:
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>memcpy(gszDuplicatePAN, pobTran-&gt;srBRec.szPAN, sizeof(pobTran-&gt;srBRec.szPAN));</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Note:在inFunc_DuplicateCheck()會使用到變數gszDuplicatePAN</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_UpdateInvNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>會先抓每個主機的調閱編號，取最大值編號，同步更新每個主機的資料庫欄位上，
-判斷如果原始的調閱編號超過上限且要結帳，設定szMustSettleBit(是否結帳的flag)為"Y"，並同步更新資料庫的欄位值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inECR_Send_Transaction_Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pobTran-&gt;uszDelaySendBit == VS_FALSE情況:
-    inECR_Send_Transaction:
-        印帳單前要送給ECR
-Note:pobTran-&gt;uszDelaySendBit == VS_FALSE可參考inNCCC_Func_Send_ECR_After_Print_Receipt()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inNCCC_Func_ESC_FuncProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inCREDIT_Func_CheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>inNCCC_Func_Check_NoSignature_Final:
-    針對客製化設定</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pobTran-&gt;srBRec.uszNoSignatureBit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，
-    並更新回資料庫(inBATCH_Update_NoSignature_By_Sqlite)
-針對CUP交易，螢幕顯示交易完成、授權碼，使用者輸入Enter/逾時離開程式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inSIGN_TouchSignature_Flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>看起來是設定</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pobTran-&gt;srBRec.inSignStatus </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>更新回資料庫，又或是開啟signPad觸控簽名功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">開啟ESC功能情況:
-    pobTran-&gt;uszFileNameNoNeedHostBit = VS_TRUE;
-    pobTran-&gt;uszFileNameNoNeedNumBit = VS_TRUE;
-    inSqlite_Drop_Table_Flow:
-        Drop Table
-    inBATCH_Create_BatchTable_Flow:
-        Create Table
-    inBATCH_Insert_All_Flow:
-        Insert Into Table
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    pobTran-&gt;uszFileNameNoNeedHostBit = VS_FALSE;
-    pobTran-&gt;uszFileNameNoNeedNumBit = VS_FALSE;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Note:每次對Table做操作，都會先開啟
-pobTran-&gt;uszFileNameNoNeedHostBit、pobTran-&gt;uszFileNameNoNeedNumBit的BitOn，
-主要用在取檔名，結束操作會關閉這兩個Bit</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inFunc_PrintReceipt_ByBuffer_Flow</t>
+    pobTran-&gt;srBRec.inCode = _DCC_RATE_;
+    pobTran-&gt;inTransactionCode = _DCC_RATE_;
+    pobTran-&gt;inISOTxnCode = _DCC_RATE_;
+    inNCCC_DCC_SendPackRecvUnPack:
+        組_送_收_解ISO 電文
+    UnPack後會設定pobTran-&gt;srBRec.szDCC_AC值，進一步Action Code設定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pobTran-&gt;srBRec.uszDCCTransBit</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inNCCC_DCC_Final_DCC_Option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,7 +1525,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,6 +1565,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1381,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1390,6 +1602,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1670,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +2123,7 @@
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="45" x14ac:dyDescent="0.3">
@@ -1983,7 +2198,7 @@
     </row>
     <row r="60" spans="2:3" ht="60" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
@@ -2038,167 +2253,207 @@
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="3" t="s">
-        <v>70</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="240" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C74" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="60" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="90" x14ac:dyDescent="0.3">
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="240" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="60" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="210" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="60" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="C104" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="C106" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" ht="45" x14ac:dyDescent="0.3">
+      <c r="B111" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
